--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="mob" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>yearly_wages_by_turnout</t>
+  </si>
+  <si>
+    <t>net_to_gross_factor</t>
+  </si>
+  <si>
+    <t>Factor to convert (aproximately) net tons to gross tons, based on a full train operation (coef).</t>
+  </si>
+  <si>
+    <t>main_min_density</t>
+  </si>
+  <si>
+    <t>Minimum density to consider a link as being a main track (ton-km/ton = ton).</t>
   </si>
 </sst>
 </file>
@@ -620,10 +632,10 @@
     <tabColor theme="7" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,6 +882,28 @@
       </c>
       <c r="C22" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="5">
+        <v>760000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +919,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -634,8 +634,8 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mob" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -204,12 +204,6 @@
     <t>coef_b_track_cost</t>
   </si>
   <si>
-    <t>crf_track</t>
-  </si>
-  <si>
-    <t>Capital recovery factor of the track.</t>
-  </si>
-  <si>
     <t>Coefficient "b" for track maintenance cost equation (coef).</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
     <t>Weight of a locomotive (ton).</t>
   </si>
   <si>
-    <t>Wage cost of maintaining a turnout.</t>
-  </si>
-  <si>
     <t>yearly_wages_by_turnout</t>
   </si>
   <si>
@@ -256,6 +247,33 @@
   </si>
   <si>
     <t>Minimum density to consider a link as being a main track (ton-km/ton = ton).</t>
+  </si>
+  <si>
+    <t>gross_tk_in_hq_track_lifetime</t>
+  </si>
+  <si>
+    <t>high_quality_track_price</t>
+  </si>
+  <si>
+    <t>interest_rate</t>
+  </si>
+  <si>
+    <t>Interest rate used to calculate capital recovery factor (rate).</t>
+  </si>
+  <si>
+    <t>Wage cost of maintaining a turnout (USD).</t>
+  </si>
+  <si>
+    <t>Design tons for high quality track. Gross tons that a hq track is suposed to support during its lifetime (gross ton-km).</t>
+  </si>
+  <si>
+    <t>The price of 1km of hight quality track (USD/km).</t>
+  </si>
+  <si>
+    <t>max_path_difference</t>
+  </si>
+  <si>
+    <t>Maximum difference in paths distance between rail and road options (coeff). Derivation won't happen if rail path is much longer than road path.</t>
   </si>
 </sst>
 </file>
@@ -634,7 +652,7 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -864,46 +882,46 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B21" s="4">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" s="4">
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4">
         <v>1.67</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B24" s="5">
         <v>760000</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -917,16 +935,16 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="92" customWidth="1"/>
   </cols>
   <sheetData>
@@ -971,7 +989,7 @@
         <v>10.34046</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,7 +1011,7 @@
         <v>458.46100000000001</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,7 +1022,7 @@
         <v>175000</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,40 +1033,62 @@
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B9" s="4">
-        <v>8.8827433387272267E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="4">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5">
         <v>109500</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="5">
+        <v>800000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1061,10 +1101,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,6 +1179,17 @@
         <v>52</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="mob" sheetId="1" r:id="rId1"/>
-    <sheet name="inf" sheetId="2" r:id="rId2"/>
-    <sheet name="deriv" sheetId="3" r:id="rId3"/>
+    <sheet name="mobility" sheetId="1" r:id="rId1"/>
+    <sheet name="infrastructure" sheetId="2" r:id="rId2"/>
+    <sheet name="derivation" sheetId="3" r:id="rId3"/>
+    <sheet name="categories" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">mob!$A$1:$C$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">mobility!$A$1:$C$20</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -280,6 +281,66 @@
   </si>
   <si>
     <t>Maximum distance density (gross ton) supported by maximum distance turnouts (ton). Above this density, more turnouts are needed (distance between them is less).</t>
+  </si>
+  <si>
+    <t>max_derivation_1</t>
+  </si>
+  <si>
+    <t>max_derivation_2</t>
+  </si>
+  <si>
+    <t>max_derivation_3</t>
+  </si>
+  <si>
+    <t>max_derivation_4</t>
+  </si>
+  <si>
+    <t>max_derivation_5</t>
+  </si>
+  <si>
+    <t>regroup_1</t>
+  </si>
+  <si>
+    <t>regroup_2</t>
+  </si>
+  <si>
+    <t>regroup_3</t>
+  </si>
+  <si>
+    <t>regroup_4</t>
+  </si>
+  <si>
+    <t>regroup_5</t>
+  </si>
+  <si>
+    <t>Maximum % of derivation for product category 1 - grains (coeff).</t>
+  </si>
+  <si>
+    <t>Maximum % of derivation for product category 2 - primary products no grains (coeff).</t>
+  </si>
+  <si>
+    <t>Maximum % of derivation for product category 3 - semi manufactured (coeff).</t>
+  </si>
+  <si>
+    <t>Maximum % of derivation for product category 4 - manufactured (coeff).</t>
+  </si>
+  <si>
+    <t>Maximum % of derivation for product category 5 - unknown (coeff).</t>
+  </si>
+  <si>
+    <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 1 - grains (coeff).</t>
+  </si>
+  <si>
+    <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 2 - primary products no grains (coeff).</t>
+  </si>
+  <si>
+    <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 3 - semi manufactured (coeff).</t>
+  </si>
+  <si>
+    <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 4 - manufactured (coeff).</t>
+  </si>
+  <si>
+    <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 5 - unknown (coeff).</t>
   </si>
 </sst>
 </file>
@@ -658,8 +719,8 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1182,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,4 +1271,148 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="107.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2">
+        <v>0.8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>0.7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>0.7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +941,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="4">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="C20" t="s">
         <v>49</v>
@@ -1281,7 +1281,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -719,8 +719,8 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1280,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -76,12 +76,6 @@
     <t>Time a train is parked at origin or destination (hr).</t>
   </si>
   <si>
-    <t>Loading capacity of a wagon (ton).</t>
-  </si>
-  <si>
-    <t>Towing capacity of a locomotive (ton).</t>
-  </si>
-  <si>
     <t>Time in a year a wagon is available to be used (hr/year).</t>
   </si>
   <si>
@@ -341,6 +335,12 @@
   </si>
   <si>
     <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 5 - unknown (coeff).</t>
+  </si>
+  <si>
+    <t>Towing capacity of a locomotive (ton). - Using 0,56 loading factor to account for empty returning locomotives.</t>
+  </si>
+  <si>
+    <t>Loading capacity of a wagon (ton). - Using 0,56 loading factor to account for empty returning wagons.</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +765,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3">
         <v>15</v>
@@ -776,13 +776,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3">
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
         <v>33.6</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>1276.8000000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>8672</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>6570</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
         <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -856,139 +856,139 @@
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5">
         <v>6463.835901091652</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5">
         <v>154445.87620922364</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5">
         <v>100170</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5">
         <v>2487.6562500000005</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="7">
         <v>30.416666666666668</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4">
         <v>0.01</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="4">
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" s="4">
         <v>1.67</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="5">
         <v>700000</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,123 +1028,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4">
         <v>-0.62124999999999997</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4">
         <v>10.34046</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4">
         <v>-0.93081999999999998</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="4">
         <v>458.46100000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4">
         <v>175000</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="4">
         <v>0.08</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="4">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5">
         <v>109500</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="5">
         <v>200000000</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5">
         <v>800000</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1155,18 +1155,18 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5">
         <v>1200000</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1210,7 +1210,7 @@
         <v>5000</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1221,51 +1221,51 @@
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="8">
         <v>0.8</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4">
         <v>500</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="5">
         <v>120000</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="4">
         <v>0.5</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1304,112 +1304,112 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>0.6</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +985,7 @@
         <v>71</v>
       </c>
       <c r="B24" s="5">
-        <v>700000</v>
+        <v>750000</v>
       </c>
       <c r="C24" t="s">
         <v>72</v>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +941,7 @@
         <v>46</v>
       </c>
       <c r="B20" s="4">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
@@ -985,7 +985,7 @@
         <v>71</v>
       </c>
       <c r="B24" s="5">
-        <v>750000</v>
+        <v>700000</v>
       </c>
       <c r="C24" t="s">
         <v>72</v>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1281,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
     <sheet name="infrastructure" sheetId="2" r:id="rId2"/>
-    <sheet name="derivation" sheetId="3" r:id="rId3"/>
-    <sheet name="categories" sheetId="4" r:id="rId4"/>
+    <sheet name="time" sheetId="5" r:id="rId3"/>
+    <sheet name="derivation" sheetId="3" r:id="rId4"/>
+    <sheet name="categories" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">mobility!$A$1:$C$20</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -341,6 +342,30 @@
   </si>
   <si>
     <t>Loading capacity of a wagon (ton). - Using 0,56 loading factor to account for empty returning wagons.</t>
+  </si>
+  <si>
+    <t>deposit_cost_per_day_ton</t>
+  </si>
+  <si>
+    <t>Cost of hold a ton of freight in a deposit one day (USD/ton-day).</t>
+  </si>
+  <si>
+    <t>ratio_truck_to_train_travel_time</t>
+  </si>
+  <si>
+    <t>Ratio of truck travel time to train travel time (coeff). Truck is always faster than train.</t>
+  </si>
+  <si>
+    <t>cost_of_immobilized_ton</t>
+  </si>
+  <si>
+    <t>Its the opportunity cost of having value immobilized over time, calculated as day interest rate * average freight value of a ton (USD/ton-day).</t>
+  </si>
+  <si>
+    <t>short_freight_to_train</t>
+  </si>
+  <si>
+    <t>Average cost of transport from door to train station (USD/ton).</t>
   </si>
 </sst>
 </file>
@@ -719,8 +744,8 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,10 +1204,88 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="92.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>0.11853075454128587</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4">
+        <v>1.1752104423052856</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -366,6 +366,18 @@
   </si>
   <si>
     <t>Average cost of transport from door to train station (USD/ton).</t>
+  </si>
+  <si>
+    <t>loading_ratio</t>
+  </si>
+  <si>
+    <t>Ratio of average net loading over total capacity per train or wagon (coeff). It reflects empty trains coming back to origin after doing a service.</t>
+  </si>
+  <si>
+    <t>min_weekly_freq</t>
+  </si>
+  <si>
+    <t>Minimum trains per week that have to be to service an od pair (number).</t>
   </si>
 </sst>
 </file>
@@ -742,10 +754,10 @@
     <tabColor theme="7" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,6 +1026,28 @@
       </c>
       <c r="C24" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1029,9 +1063,7 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1206,8 +1238,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1416,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -754,10 +754,10 @@
     <tabColor theme="7" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,17 +1037,6 @@
       </c>
       <c r="C25" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="4">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1236,10 +1225,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,6 +1291,17 @@
       </c>
       <c r="C5" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -756,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1022,7 @@
         <v>71</v>
       </c>
       <c r="B24" s="5">
-        <v>700000</v>
+        <v>100000</v>
       </c>
       <c r="C24" t="s">
         <v>72</v>
@@ -1227,7 +1227,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -239,9 +239,6 @@
     <t>main_min_density</t>
   </si>
   <si>
-    <t>Minimum density to consider a link as being a main track (ton-km/ton = ton).</t>
-  </si>
-  <si>
     <t>gross_tk_in_hq_track_lifetime</t>
   </si>
   <si>
@@ -378,6 +375,9 @@
   </si>
   <si>
     <t>Minimum trains per week that have to be to service an od pair (number).</t>
+  </si>
+  <si>
+    <t>Minimum net density to consider a link as being a main track (ton-km/ton = ton).</t>
   </si>
 </sst>
 </file>
@@ -830,7 +830,7 @@
         <v>33.6</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
         <v>1276.8000000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1022,21 +1022,21 @@
         <v>71</v>
       </c>
       <c r="B24" s="5">
-        <v>100000</v>
+        <v>800000</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" s="4">
         <v>0.56000000000000005</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1140,13 +1140,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="4">
         <v>0.08</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1168,29 +1168,29 @@
         <v>109500</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="5">
         <v>200000000</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5">
         <v>800000</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1201,18 +1201,18 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5">
         <v>1200000</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1251,57 +1251,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>0.11853075454128587</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4">
         <v>1.1752104423052856</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>1.5</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="4">
         <v>0.5</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1439,112 +1439,112 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>0.6</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -378,6 +378,24 @@
   </si>
   <si>
     <t>Minimum net density to consider a link as being a main track (ton-km/ton = ton).</t>
+  </si>
+  <si>
+    <t>infrast_cost_rpc</t>
+  </si>
+  <si>
+    <t>Shadow price to market price ratio in infrastructure cost (coeff).</t>
+  </si>
+  <si>
+    <t>mobility_cost_rpc</t>
+  </si>
+  <si>
+    <t>Shadow price to market price ratio in mobility cost (coeff).</t>
+  </si>
+  <si>
+    <t>time_cost_rpc</t>
+  </si>
+  <si>
+    <t>Shadow price to market price ratio in time cost (coeff).</t>
   </si>
 </sst>
 </file>
@@ -387,7 +405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +417,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -424,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -449,6 +474,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,10 +780,10 @@
     <tabColor theme="7" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,6 +1065,17 @@
         <v>115</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>
@@ -1050,9 +1087,11 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1215,6 +1254,17 @@
         <v>83</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1225,10 +1275,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,6 +1352,17 @@
       </c>
       <c r="C6" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -475,6 +475,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1277,7 +1278,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1378,7 +1379,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,8 +1477,8 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,7 +1503,7 @@
       <c r="A2" t="s">
         <v>84</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="11">
         <v>0.8</v>
       </c>
       <c r="C2" t="s">
@@ -1513,7 +1514,7 @@
       <c r="A3" t="s">
         <v>85</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <v>0.7</v>
       </c>
       <c r="C3" t="s">
@@ -1524,7 +1525,7 @@
       <c r="A4" t="s">
         <v>86</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>0.7</v>
       </c>
       <c r="C4" t="s">
@@ -1535,7 +1536,7 @@
       <c r="A5" t="s">
         <v>87</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>0.6</v>
       </c>
       <c r="C5" t="s">
@@ -1546,7 +1547,7 @@
       <c r="A6" t="s">
         <v>88</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <v>0.5</v>
       </c>
       <c r="C6" t="s">

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="129">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Design tons for high quality track. Gross tons that a hq track is suposed to support during its lifetime (gross ton-km).</t>
   </si>
   <si>
-    <t>The price of 1km of hight quality track (USD/km).</t>
-  </si>
-  <si>
     <t>max_path_difference</t>
   </si>
   <si>
@@ -396,6 +393,21 @@
   </si>
   <si>
     <t>Shadow price to market price ratio in time cost (coeff).</t>
+  </si>
+  <si>
+    <t>low_quality_track_price</t>
+  </si>
+  <si>
+    <t>The price of 1km of low quality track (USD/km).</t>
+  </si>
+  <si>
+    <t>The price of 1km of high quality track (USD/km).</t>
+  </si>
+  <si>
+    <t>gross_main_min_density</t>
+  </si>
+  <si>
+    <t>Minimum gross density to consider a link as being a main track (ton-km/ton = ton). Used for secondary track eac cost calculation.</t>
   </si>
 </sst>
 </file>
@@ -449,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -476,6 +488,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,7 +797,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +870,7 @@
         <v>33.6</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -868,7 +881,7 @@
         <v>1276.8000000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1049,32 +1062,32 @@
         <v>71</v>
       </c>
       <c r="B24" s="5">
-        <v>800000</v>
+        <v>100000</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="4">
         <v>0.56000000000000005</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="10">
         <v>0.82</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1088,10 +1101,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1243,7 @@
         <v>800000</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1241,29 +1254,51 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5">
         <v>1200000</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="10">
         <v>0.82</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="12">
+        <v>200000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1333333.3333333333</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1302,68 +1337,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>0.11853075454128587</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>1.1752104423052856</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <v>1.5</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1379,7 +1414,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,13 +1491,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="4">
         <v>0.5</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1475,10 +1510,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1523,7 @@
     <col min="3" max="3" width="107.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1499,114 +1534,119 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="C3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="C5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="C6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>88</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>89</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -796,8 +796,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1512,7 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -796,7 +796,7 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
@@ -1103,8 +1103,8 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1284,7 @@
         <v>124</v>
       </c>
       <c r="B16" s="12">
-        <v>200000</v>
+        <v>156250.76923076919</v>
       </c>
       <c r="C16" t="s">
         <v>125</v>
@@ -1295,7 +1295,7 @@
         <v>127</v>
       </c>
       <c r="B17" s="12">
-        <v>1333333.3333333333</v>
+        <v>701400</v>
       </c>
       <c r="C17" t="s">
         <v>128</v>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -461,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -489,6 +489,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,7 +800,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1065,7 @@
         <v>71</v>
       </c>
       <c r="B24" s="5">
-        <v>100000</v>
+        <v>420000</v>
       </c>
       <c r="C24" t="s">
         <v>117</v>
@@ -1083,7 +1086,7 @@
       <c r="A26" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="13">
         <v>0.82</v>
       </c>
       <c r="C26" t="s">

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -414,8 +414,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -461,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -492,6 +493,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,7 +1108,7 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1515,8 +1517,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,8 +1543,8 @@
       <c r="A2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
+      <c r="B2" s="14">
+        <v>0.8</v>
       </c>
       <c r="C2" t="s">
         <v>93</v>
@@ -1553,8 +1555,8 @@
       <c r="A3" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="11">
-        <v>0.875</v>
+      <c r="B3" s="14">
+        <v>0.7</v>
       </c>
       <c r="C3" t="s">
         <v>94</v>
@@ -1565,8 +1567,8 @@
       <c r="A4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="11">
-        <v>0.875</v>
+      <c r="B4" s="14">
+        <v>0.7</v>
       </c>
       <c r="C4" t="s">
         <v>95</v>
@@ -1577,8 +1579,8 @@
       <c r="A5" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="11">
-        <v>0.75</v>
+      <c r="B5" s="14">
+        <v>0.6</v>
       </c>
       <c r="C5" t="s">
         <v>96</v>
@@ -1589,8 +1591,8 @@
       <c r="A6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="11">
-        <v>0.625</v>
+      <c r="B6" s="14">
+        <v>0.5</v>
       </c>
       <c r="C6" t="s">
         <v>97</v>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
     <sheet name="infrastructure" sheetId="2" r:id="rId2"/>
-    <sheet name="time" sheetId="5" r:id="rId3"/>
+    <sheet name="time and others" sheetId="5" r:id="rId3"/>
     <sheet name="derivation" sheetId="3" r:id="rId4"/>
     <sheet name="categories" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">mobility!$A$1:$C$20</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="132">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Maximum wagons carried by a single locomotive (units/loc).</t>
   </si>
   <si>
-    <t>Minimum tons an origin-destination pair must carry to be derivable to railway (ton).</t>
-  </si>
-  <si>
     <t>Minimum distance an origin-destination pair cover to be derivable to railway (ton).</t>
   </si>
   <si>
@@ -152,12 +149,6 @@
     <t>max_derivation</t>
   </si>
   <si>
-    <t>Probability of truck to rail derivation on the longest distances, ie maximum probability of derivation (%).</t>
-  </si>
-  <si>
-    <t>Distance since probability of truck to rail derivation is maximum (km).</t>
-  </si>
-  <si>
     <t>dist_of_max_derivation</t>
   </si>
   <si>
@@ -170,9 +161,6 @@
     <t>tons_of_max_derivation</t>
   </si>
   <si>
-    <t>Tons since probability of truck to rail derivation is maximum (tons).</t>
-  </si>
-  <si>
     <t>coef_a_track_maint_cost</t>
   </si>
   <si>
@@ -408,17 +396,40 @@
   </si>
   <si>
     <t>Minimum gross density to consider a link as being a main track (ton-km/ton = ton). Used for secondary track eac cost calculation.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>min_derivation</t>
+  </si>
+  <si>
+    <t>Proportion of truck to rail derivation on the longest distances and ton scale, ie maximum proportion of derivation (%).</t>
+  </si>
+  <si>
+    <t>Proportion of truck to rail derivation on the minimum distances and ton scale, ie minimum proportion of derivation (%).</t>
+  </si>
+  <si>
+    <t>Minimum tons that must be derivable from a road origin-destination pair to be considered a derivable od pair (ton).</t>
+  </si>
+  <si>
+    <t>Distance since proportion of truck to rail derivation is maximum (km).</t>
+  </si>
+  <si>
+    <t>Road od tons since proportion of truck to rail derivation is maximum (tons).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +452,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -459,10 +477,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -494,8 +513,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -801,8 +823,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +836,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -847,7 +869,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3">
         <v>15</v>
@@ -858,13 +880,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3">
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,7 +897,7 @@
         <v>33.6</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,7 +908,7 @@
         <v>1276.8000000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,156 +965,156 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5">
         <v>6463.835901091652</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5">
         <v>154445.87620922364</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5">
         <v>100170</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5">
         <v>2487.6562500000005</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="7">
         <v>30.416666666666668</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" s="4">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B21" s="4">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B22" s="4">
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B23" s="4">
         <v>1.67</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B24" s="5">
         <v>420000</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B25" s="4">
         <v>0.56000000000000005</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B26" s="13">
         <v>0.82</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1109,7 +1131,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,123 +1154,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4">
         <v>-0.62124999999999997</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4">
         <v>10.34046</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4">
         <v>-0.93081999999999998</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4">
         <v>458.46100000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4">
         <v>175000</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B8" s="4">
         <v>0.08</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B9" s="4">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5">
         <v>109500</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5">
         <v>200000000</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5">
         <v>800000</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1259,51 +1281,51 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B14" s="5">
         <v>1200000</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B15" s="10">
         <v>0.82</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B16" s="12">
         <v>156250.76923076919</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B17" s="12">
         <v>701400</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1341,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,68 +1364,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>0.11853075454128587</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>1.1752104423052856</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>1.5</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1416,16 +1438,16 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="63.140625" customWidth="1"/>
+    <col min="3" max="3" width="83.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1443,11 +1465,11 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
-        <v>5000</v>
+      <c r="B2" s="5">
+        <v>10000</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1458,52 +1480,78 @@
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8">
         <v>0.8</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="4">
-        <v>500</v>
+        <v>126</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.25</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="5">
-        <v>120000</v>
+        <v>42</v>
+      </c>
+      <c r="B6" s="4">
+        <v>500</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="4">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5">
+        <v>120000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="4">
         <v>0.5</v>
       </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1517,8 +1565,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,117 +1589,117 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B2" s="14">
         <v>0.8</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B3" s="14">
         <v>0.7</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" s="14">
         <v>0.7</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B5" s="14">
         <v>0.6</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" s="14">
         <v>0.5</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -427,7 +427,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -514,7 +514,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1441,7 +1441,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1466,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="5">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="C2" t="s">
         <v>129</v>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="categories" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">mobility!$A$1:$C$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">mobility!$A$1:$C$23</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="138">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -95,12 +95,6 @@
     <t>Minimum distance an origin-destination pair cover to be derivable to railway (ton).</t>
   </si>
   <si>
-    <t>wagon_eac</t>
-  </si>
-  <si>
-    <t>locomotive_eac</t>
-  </si>
-  <si>
     <t>fuel_cost_by_km</t>
   </si>
   <si>
@@ -113,12 +107,6 @@
     <t>Fuel cost of running a locomotive one km (USD/km).</t>
   </si>
   <si>
-    <t>Equivalent anual cost of a locomotive. It must be calculated outside the model, from a spreadsheet (USD).</t>
-  </si>
-  <si>
-    <t>Equivalent anual cost of a wagon. It must be calculated outside the model, from a spreadsheet (USD).</t>
-  </si>
-  <si>
     <t>maintenance_by_locomotive</t>
   </si>
   <si>
@@ -131,12 +119,6 @@
     <t>Annual cost of a wagon maintenance (USD).</t>
   </si>
   <si>
-    <t>manpower_cost_by_loc_hour</t>
-  </si>
-  <si>
-    <t>Cost of conduction and guards manpower, by hour of locomotive running or waiting in turnout (USD/loc-hr).</t>
-  </si>
-  <si>
     <t>locom_head_stops_time</t>
   </si>
   <si>
@@ -417,6 +399,42 @@
   </si>
   <si>
     <t>Road od tons since proportion of truck to rail derivation is maximum (tons).</t>
+  </si>
+  <si>
+    <t>manpower_cost_by_hour</t>
+  </si>
+  <si>
+    <t>manpower_by_loc</t>
+  </si>
+  <si>
+    <t>Cost of conduction and guards manpower, by hour (USD/hr).</t>
+  </si>
+  <si>
+    <t>Number of manpower needed to operate a single train (number).</t>
+  </si>
+  <si>
+    <t>locomotive_price</t>
+  </si>
+  <si>
+    <t>wagon_price</t>
+  </si>
+  <si>
+    <t>useful_life_wagon</t>
+  </si>
+  <si>
+    <t>useful_life_locom</t>
+  </si>
+  <si>
+    <t>Price of wagon (USD).</t>
+  </si>
+  <si>
+    <t>Price of a locomotive (USD).</t>
+  </si>
+  <si>
+    <t>Useful life a wagon (years).</t>
+  </si>
+  <si>
+    <t>Useful life a locomotive (years).</t>
   </si>
 </sst>
 </file>
@@ -424,10 +442,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -479,7 +497,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -503,7 +521,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -512,9 +530,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -821,22 +839,22 @@
     <tabColor theme="7" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="97.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="97.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -845,7 +863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -856,7 +874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -867,9 +885,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3">
         <v>15</v>
@@ -878,18 +896,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3">
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -897,10 +915,10 @@
         <v>33.6</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -908,10 +926,10 @@
         <v>1276.8000000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -922,7 +940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -933,7 +951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -941,7 +959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -952,7 +970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -963,158 +981,191 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="5">
+        <v>80000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1800000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="5">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="5">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5">
-        <v>6463.835901091652</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="9">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5">
+        <v>100170</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2487.6562500000005</v>
+      </c>
+      <c r="C20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5">
-        <v>154445.87620922364</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="7">
+        <v>15.21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="5">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="9">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5">
-        <v>100170</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="5">
-        <v>2487.6562500000005</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="7">
-        <v>30.416666666666668</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="B23" s="4">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="4">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="C26" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="4">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="4">
-        <v>100</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="5">
+      <c r="B27" s="5">
         <v>420000</v>
       </c>
-      <c r="C24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="4">
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="13">
+      <c r="B29" s="13">
         <v>0.82</v>
       </c>
-      <c r="C26" t="s">
-        <v>117</v>
+      <c r="C29" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1185,7 @@
       <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -1154,123 +1205,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4">
         <v>-0.62124999999999997</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <v>10.34046</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4">
         <v>-0.93081999999999998</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" s="4">
         <v>458.46100000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4">
         <v>175000</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4">
         <v>0.08</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5">
         <v>109500</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5">
         <v>200000000</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5">
         <v>800000</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,51 +1332,51 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5">
         <v>1200000</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B15" s="10">
         <v>0.82</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B16" s="12">
         <v>156250.76923076919</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B17" s="12">
         <v>701400</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1344,11 +1395,11 @@
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="92.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="92.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,68 +1415,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B2">
         <v>0.11853075454128587</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>1.1752104423052856</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>1.5</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1440,14 +1491,14 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="83.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="83.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,7 +1520,7 @@
         <v>7000</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1485,57 +1536,57 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B4" s="8">
         <v>0.8</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B5" s="8">
         <v>0.25</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4">
         <v>500</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5">
         <v>120000</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4">
         <v>0.5</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1569,11 +1620,11 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="107.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="107.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,117 +1640,117 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B2" s="14">
         <v>0.8</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B3" s="14">
         <v>0.7</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B4" s="14">
         <v>0.7</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B5" s="14">
         <v>0.6</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B6" s="14">
         <v>0.5</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/railway_parameters.xlsx
+++ b/data/railway_parameters.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">mobility!$A$1:$C$23</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -442,10 +442,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -497,7 +497,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -521,7 +521,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -530,9 +530,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -841,18 +841,18 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="97.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="97.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -863,7 +863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -874,7 +874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -885,7 +885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -896,7 +896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -907,7 +907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -918,7 +918,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -929,7 +929,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -940,7 +940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -951,7 +951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -959,7 +959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -970,7 +970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -981,7 +981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -992,7 +992,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -1185,7 +1185,7 @@
       <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -1391,15 +1391,15 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="92.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="92.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>95</v>
       </c>
       <c r="B2">
-        <v>0.11853075454128587</v>
+        <v>5.8760522115264287E-2</v>
       </c>
       <c r="C2" t="s">
         <v>96</v>
@@ -1495,10 +1495,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="83.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="83.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,11 +1620,11 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="107.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="107.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
